--- a/medicine/Enfance/Nadine_Brun-Cosme/Nadine_Brun-Cosme.xlsx
+++ b/medicine/Enfance/Nadine_Brun-Cosme/Nadine_Brun-Cosme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Brun-Cosme est une écrivaine de littérature jeunesse et auteure d'essais française.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Brun-Cosme est un auteur de littérature dont l’œuvre a été souvent primée et abondamment traduite.
 Son premier texte, Marie de la Mer, est publié  en 1988. Il est mis en images par Yan Nascimbene, qui réalise son premier travail d’album. Primé en Italie, recevant le prix Paolo Virglione de Padoue dès sa sortie, il sera suivi de deux autres albums aux éditions Milan, Les Pigeons et Alex et le silence. Parallèlement paraissent ses premiers romans : Lisa l’intruse, en 1988, et 15e étage, porte droite, Léo, sélectionné dans le cadre du prix Jeunesse et Sports[précision nécessaire].
 Suivent J’ai vu mon père à la télé, aux éditions du Chardon Bleu, et trois autres romans aux éditions Milan : La petite buissonnière, Celle qui murmure et Le jardin-colère. Les éditions Nathan publient ses romans suivants : Le sourire d’Anaïs, Un chat dans mon assiette, La fenêtre de neige, mis en images par Nathalie Novi.
-Parallèlement, ses textes d’albums sont publiés par les éditions Milan, Les fleurs blanches puis à l’École des Loisirs, C’est mon papa, Cache-cache, Loup es-tu là, les éditions Pastel pour Le roi lapin et les éditions Flammarion. En 2008 paraît Grand Loup et Petit Loup mis en images par Olivier Tallec aux éditions Flammarion. Il est suivi de La petite feuille qui ne tombait pas et Une si belle orange, trois tomes traduits dans vingt langues, qui sont primés une dizaine de fois et adaptés à la fois au cinéma et à la télévision. En 2015, elle s'associe avec l'illustratrice Aurélie Guillerey pour Papa à grand pas[1].
-Un nouvel album mis en images par Olivier Tallec, Moi devant, reçoit deux prix importants : le prix des libraires indépendants du Québec 2016, et le prix Anderson en Italie. Il est adapté pour la télévision. Il fait partie de la sélection Maternelle du prix des Incorruptibles 2016-2017[2].
-Parmi ses derniers titres parus en 2020 figurent Tous au carnaval (même le loup)[3], 3 histoires d'anniversaires, parues dans le magazine Pomme d'Api et pour les tout-petits Petit fier, Petit chagrin, Comptines et routines : des comptines à mimer pour tous les moments de la journée.
+Parallèlement, ses textes d’albums sont publiés par les éditions Milan, Les fleurs blanches puis à l’École des Loisirs, C’est mon papa, Cache-cache, Loup es-tu là, les éditions Pastel pour Le roi lapin et les éditions Flammarion. En 2008 paraît Grand Loup et Petit Loup mis en images par Olivier Tallec aux éditions Flammarion. Il est suivi de La petite feuille qui ne tombait pas et Une si belle orange, trois tomes traduits dans vingt langues, qui sont primés une dizaine de fois et adaptés à la fois au cinéma et à la télévision. En 2015, elle s'associe avec l'illustratrice Aurélie Guillerey pour Papa à grand pas.
+Un nouvel album mis en images par Olivier Tallec, Moi devant, reçoit deux prix importants : le prix des libraires indépendants du Québec 2016, et le prix Anderson en Italie. Il est adapté pour la télévision. Il fait partie de la sélection Maternelle du prix des Incorruptibles 2016-2017.
+Parmi ses derniers titres parus en 2020 figurent Tous au carnaval (même le loup), 3 histoires d'anniversaires, parues dans le magazine Pomme d'Api et pour les tout-petits Petit fier, Petit chagrin, Comptines et routines : des comptines à mimer pour tous les moments de la journée.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Regard sur l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les thèmes de l’absence et de la séparation sont très souvent interrogés dans les thématiques littéraires de Nadine Brun-Cosme[4]..
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les thèmes de l’absence et de la séparation sont très souvent interrogés dans les thématiques littéraires de Nadine Brun-Cosme..
 </t>
         </is>
       </c>
@@ -580,18 +596,91 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Théâtre
-Et moi et moi, L’École des Loisirs, collection Théâtrale, 2002
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Et moi et moi, L’École des Loisirs, collection Théâtrale, 2002
 Un poisson dans mon arbre, L’École des Loisirs, collection Théâtrale, 2004
 L’Anniversée, L’École des Loisirs, collection Théâtrale, 2007
 Une si petite valise, L’École des Loisirs, collection Théâtrale, 2009
 Entre les deux mon cœur, L'École des Loisirs, collection Théâtrale, 2011
-I am afraid, L'École des loisirs, collection Théâtrale, 2013
-Essais
- Dire, lire, écrire, avec Gérard Moncomble et Christian Poslaniec, Milan, 1993
-Écritures en résidence, L'Harmattan, 1997
-Albums
-Lisa l'intruse, Milan, 1987, 158p.  (ISBN 9782867261718)
+I am afraid, L'École des loisirs, collection Théâtrale, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dire, lire, écrire, avec Gérard Moncomble et Christian Poslaniec, Milan, 1993
+Écritures en résidence, L'Harmattan, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lisa l'intruse, Milan, 1987, 158p.  (ISBN 9782867261718)
 Marie de la mer, illustrations de Yan Nascimbene, L’École des Loisirs, Ed. Milan 1988. Prix de littérature jeunesse de Padoue.
 Les Pigeons, illustrations de Yan Nascimbene, Milan. 1989. Prix du salon du livre de Brignais, prix du livre jeunesse de Concarneau.
 Alex et le silence, illustrations de Yan Nascimbene, Milan. 1990
@@ -614,7 +703,7 @@
 Série Grand Loup et Petit Loup, illustrations de Olivier Tallec, Père Castor-Flammarion.
 Grand Loup et petit Loup, 2005.
 Grand Loup et petit Loup. La petite feuille qui ne tombait pas, 2007
-Grand Loup et Petit Loup. Une si Belle Orange[5], 2010
+Grand Loup et Petit Loup. Une si Belle Orange, 2010
 Les Fleurs blanches, travail d’images de Nataël Vogel, Milan. 1995,
 Atchoum, images de Vincent Bourgeau, Nathan. Coll. Étoile Filante. 2002.
 Loup ne sait pas compter, illustrations de Nathalie Choux, Père Castor-Flammarion, Flammarion, 2006, réédité en 2010
@@ -622,7 +711,7 @@
 Petit kang, illustrations de Géraldine Cosneau, Bayard, 2006
 Le Nez sale du petit bonhomme sage, Bayard 2007
 Les poux, c'est rien du tout! , Lito,avec Mado Seiffert, 2008, 24p.  (ISBN 9782244419527)
-1, 2, 3 en haut en bas[6], illustré par Maud Legrand, Père Castor-Flammarion, 2008  (ISBN 978-2-08-120586-4)
+1, 2, 3 en haut en bas, illustré par Maud Legrand, Père Castor-Flammarion, 2008  (ISBN 978-2-08-120586-4)
 Coucou, c'est moi, illustré par Maud Legrand, Père Castor-Flammarion, 2009  (ISBN 978-2-08-122249-6)
 Le Petit cri pointu des longs ciseaux d'acier, illustrations de Marie-France Bonmariage, Éditions Esperluette  2009
 Tous sauf un, Points de suspension, avec Anne-Isabelle Le Touzé, 2009, 30p.  (ISBN 9782912138750)
@@ -635,7 +724,7 @@
 Avec moi c'est comme ça, Flammarion, 2012, 18p.  (ISBN 9782081263741)
 Grand comment, Benjamins média, 2012, 48p.  (ISBN 9782912754592)
 Un petit roi à la grande école, collection mes premiers j'aime lire, illustrations de Claire Wortemann, Bayard jeunesse, 2012, 24p.  (ISBN 9782747044370)
-Loup ne sait pas quel jour on est[7], illustrations de Nathalie Choux, Flammarion jeunesse, 2013
+Loup ne sait pas quel jour on est, illustrations de Nathalie Choux, Flammarion jeunesse, 2013
 D'une île à l'autre, Illustrations Sylvie Serprix, Talents Hauts Éditions , 2013, 25p.  (ISBN 9782362660917)
 La petite taupe qui n'osait pas sortir, Nathan, avec Fabrice Turrier, 2013, 32p.  (ISBN 9782092544297)
 Moi devant, Flammarion, avec Olivier Tallec, 2015, 26p.  (ISBN 9782081330634)
@@ -644,7 +733,7 @@
 Les lunettes de Camille, Bayard jeunesse, 2015, 32p.  (ISBN 9782747057691)
 J'attends Noël. .. ,Nathan, 2015, 12p.  (ISBN 9782092558034)
 Papa à grand pas, dessin d'Aurélie Guillerey, Nathan, 2015
-traduit en anglais : Daddy Long Legs[8],[9], éd. Two Hoots, 2017
+traduit en anglais : Daddy Long Legs éd. Two Hoots, 2017
 Non, c'est moi toute seule!, Éditions Fleurus, 2016, 32p.  (ISBN 9782215130949)
 L'école, moi,j'irai pas!, Éditions Fleurus, 2016, 32p.  (ISBN 9782215130963)
 Petit gorille, Points de suspension, 2016, 50p.  (ISBN 9791091338394)
@@ -673,47 +762,117 @@
 Le voleur d'oreilles , Glénat jeunesse , illustration Christine Davenier , 2023 , 32p.  (ISBN 9782344054925)
 César, comme sur des roulettes ,Auzou éditions , illustration de Thierry Manès , 2023 , 32 p.  (ISBN 9791039522274)
 Le grand bruit de la pluie , illustration Sandro Jiro , Minedition , 2023 , 20p.  (ISBN 9782354136192)
-Le nez du bonhomme de neige , Minedition , 2023  (ISBN 9782354136543)
-Adolescence
-Le sourire d'Anaīs, Nathan, 1998, 176p.  (ISBN 9782092822548)
+Le nez du bonhomme de neige , Minedition , 2023  (ISBN 9782354136543)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adolescence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le sourire d'Anaīs, Nathan, 1998, 176p.  (ISBN 9782092822548)
 Le gardien du château , Flammarion, avec Michel Boucher, 1998, 80p.  (ISBN 9782081642973)
 L'ombre bleue dans la classe, Nathan, 2001, 102p.  (ISBN 9782092102954)
 La courbe de tes yeux , Courtes Longues, 2021, 128p.  (ISBN 9782352902850)
-Un loup à ma porte , L' école des loisirs  , 2023 , 176p.  (ISBN 9782211318068)
-Bande dessinée
-Le Chemin aux oiseaux, avec Edmond Baudoin, Le Seuil, 1999[10].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+Un loup à ma porte , L' école des loisirs  , 2023 , 176p.  (ISBN 9782211318068)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Nadine_Brun-Cosme</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nadine_Brun-Cosme</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Chemin aux oiseaux, avec Edmond Baudoin, Le Seuil, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Brun-Cosme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix jeunesse des libraires du Québec (Canada) 2016[11] pour Moi devant, illustré par Olivier Tallec.
-Premio nazionale Nati per Leggere (Italie) 2014[12] du Salon international du livre (Turin) pour Grand loup et Petit loup, illustré par Olivier Tallec.
-Finaliste Prix Landerneau 2021[13], Catégorie Album Jeunesse, pour Le Voyage de Grand Ours, illustré par Sébastien Pelon</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix jeunesse des libraires du Québec (Canada) 2016 pour Moi devant, illustré par Olivier Tallec.
+Premio nazionale Nati per Leggere (Italie) 2014 du Salon international du livre (Turin) pour Grand loup et Petit loup, illustré par Olivier Tallec.
+Finaliste Prix Landerneau 2021, Catégorie Album Jeunesse, pour Le Voyage de Grand Ours, illustré par Sébastien Pelon</t>
         </is>
       </c>
     </row>
